--- a/app/src/main/Assets/Gps.xlsx
+++ b/app/src/main/Assets/Gps.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Numero</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Cliente</t>
   </si>
@@ -406,68 +403,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:A65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
